--- a/数据整理/stocks/A股/深证主板/002468-申通快递.xlsx
+++ b/数据整理/stocks/A股/深证主板/002468-申通快递.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,17 +557,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -576,13 +597,141 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>39.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000041</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>39.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002468-申通快递.xlsx
+++ b/数据整理/stocks/A股/深证主板/002468-申通快递.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -678,7 +679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -689,17 +690,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -709,14 +730,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3058</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -725,13 +768,385 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008851</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002468-申通快递.xlsx
+++ b/数据整理/stocks/A股/深证主板/002468-申通快递.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,46 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007152</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺德策略精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.95</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0271</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -542,6 +532,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3058</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008851</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -673,13 +1061,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -730,424 +1118,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006682</t>
+          <t>007152</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城中证500指数增强</t>
+          <t>诺德策略精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.11</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.22</t>
+          <t>89.95</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3058</t>
+          <t>0.0271</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000978</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城量化精选股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1288</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008851</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>78.18</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0511</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005970</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰消费优选股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.45</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0500</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011431</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>泰达宏利消费服务混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.17</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0499</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005632</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华量化先锋混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0221</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004641</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>万家量化睿选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.47</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0106</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002020</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国都创新驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>87.78</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011432</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>泰达宏利消费服务混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.17</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.03</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002468-申通快递.xlsx
+++ b/数据整理/stocks/A股/深证主板/002468-申通快递.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>0.63</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -532,6 +549,1430 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013797</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时优质鑫选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5231</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4014</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4007</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2458</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2070</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2033</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011845</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时周期优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>516530</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华中证现代物流ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015031</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时远见回报混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证现代物流ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014212</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时研究优享混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015030</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时远见回报混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011786</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银聚安混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013798</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时优质鑫选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014913</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时研究回报混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011590</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>九泰天利量化股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014914</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时研究回报混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.31</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011846</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时周期优选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014213</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时研究优享混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>167702</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011589</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>九泰天利量化股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011787</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银聚安混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -929,7 +2370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1061,7 +2502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002468-申通快递.xlsx
+++ b/数据整理/stocks/A股/深证主板/002468-申通快递.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>3.67</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
-        <v>0.63</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -549,6 +566,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>016163</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家欣远混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>016164</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家欣远混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1972,7 +2311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2370,7 +2709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2502,7 +2841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
